--- a/数据整理/stocks/A股/上证主板/603855-华荣股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603855-华荣股份.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>15.28</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>74.92</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>5.31</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8114</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>5</v>
       </c>
     </row>
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>14.22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>93.95</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>3.69</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5247</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>8</v>
       </c>
     </row>
@@ -558,15 +588,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>91.75</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>6.28</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4421</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>4</v>
       </c>
     </row>
@@ -586,15 +626,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>89.27</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>5.08</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3744</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>3</v>
       </c>
     </row>
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>009667</t>
+          <t>008099</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>鹏华安庆混合A</t>
+          <t>广发价值领先混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>35.62</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.11</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>10</v>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3160</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -632,25 +692,35 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>009668</t>
+          <t>009667</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>鹏华安庆混合C</t>
+          <t>鹏华安庆混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>35.62</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1.11</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0808</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>10</v>
       </c>
     </row>
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>008099</t>
+          <t>009668</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>广发价值领先混合</t>
+          <t>鹏华安庆混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>92.20</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>8.00</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>2</v>
+          <t>35.62</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -693,7 +773,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -714,15 +794,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -734,26 +824,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>270001</t>
+          <t>008099</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发聚富混合</t>
+          <t>广发价值领先混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>59.38</t>
+          <t>45.87</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5.77</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>5</v>
+          <t>72.96</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8256</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -762,25 +862,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001152</t>
+          <t>270001</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>融通新区域新经济灵活配置混合</t>
+          <t>广发聚富混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>87.33</t>
+          <t>16.75</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.63</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+          <t>59.38</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9665</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>5</v>
       </c>
     </row>
@@ -800,15 +910,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>11.56</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>94.04</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>7.17</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8289</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>2</v>
       </c>
     </row>
@@ -818,26 +938,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001763</t>
+          <t>005233</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>广发多策略灵活配置混合</t>
+          <t>广发睿毅领先混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>57.89</t>
+          <t>13.46</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>5.74</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>4</v>
+          <t>60.72</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5653</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -846,26 +976,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>161609</t>
+          <t>001763</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>融通动力先锋混合</t>
+          <t>广发多策略灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>87.73</t>
+          <t>9.18</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.62</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>3</v>
+          <t>57.89</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5269</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -874,26 +1014,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005233</t>
+          <t>003165</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>广发睿毅领先混合</t>
+          <t>鹏华弘嘉灵活配置混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>60.72</t>
+          <t>7.92</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4.20</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>6</v>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3659</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -902,26 +1052,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>005416</t>
+          <t>161609</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>鹏华尊惠18个月定期开放混合A</t>
+          <t>融通动力先锋混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>37.25</t>
+          <t>9.12</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.60</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>5</v>
+          <t>87.73</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3301</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -930,25 +1090,35 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>005417</t>
+          <t>001152</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>鹏华尊惠18个月定期开放混合C</t>
+          <t>融通新区域新经济灵活配置混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>37.25</t>
+          <t>4.66</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.60</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
+          <t>87.33</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1692</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>5</v>
       </c>
     </row>
@@ -958,26 +1128,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>003165</t>
+          <t>009667</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>鹏华弘嘉灵活配置混合A</t>
+          <t>鹏华安庆混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>94.56</t>
+          <t>7.53</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4.62</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>2</v>
+          <t>36.07</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0964</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -986,26 +1166,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>003166</t>
+          <t>009230</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>鹏华弘嘉灵活配置混合C</t>
+          <t>鹏华安和混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>94.56</t>
+          <t>7.25</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4.62</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>2</v>
+          <t>33.29</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0892</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>008099</t>
+          <t>005416</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>广发价值领先混合</t>
+          <t>鹏华尊惠18个月定期开放混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>72.96</t>
+          <t>4.37</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3.98</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>10</v>
+          <t>37.25</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0699</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="13">
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>009667</t>
+          <t>005417</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>鹏华安庆混合A</t>
+          <t>鹏华尊惠18个月定期开放混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>36.07</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1.28</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>7</v>
+          <t>37.25</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="14">
@@ -1070,26 +1280,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>009668</t>
+          <t>009231</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>鹏华安庆混合C</t>
+          <t>鹏华安和混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>36.07</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1.28</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>7</v>
+          <t>33.29</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="15">
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>009230</t>
+          <t>009668</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>鹏华安和混合A</t>
+          <t>鹏华安庆混合C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>33.29</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1.23</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>5</v>
+          <t>36.07</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="16">
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>009231</t>
+          <t>003166</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>鹏华安和混合C</t>
+          <t>鹏华弘嘉灵活配置混合C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>33.29</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1.23</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>5</v>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/603855-华荣股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603855-华荣股份.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1391,4 +1392,402 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519029</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏稳增混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5979</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009667</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华安庆混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.75</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>25.72</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1698</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005416</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华尊惠18个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>22.44</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1527</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009230</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华安和混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>25.42</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1372</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003165</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华弘嘉灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0603</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009231</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华安和混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>25.42</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0333</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009668</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华安庆混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>25.72</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0318</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005417</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华尊惠18个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>22.44</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003166</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华弘嘉灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603855-华荣股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603855-华荣股份.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1790,4 +1791,630 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009914</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国成长动力混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>72.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3258</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001877</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>宝盈国家安全战略沪港深股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.77</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2859</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>161609</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>融通动力先锋混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.95</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2262</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009667</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华安庆混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.63</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>26.86</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2211</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009230</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华安和混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.94</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>25.31</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2054</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005416</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华尊惠18个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>29.32</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2003</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000471</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国城镇发展股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1649</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001152</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>融通新区域新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.55</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0911</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009231</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华安和混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>25.31</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0834</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005775</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>69.76</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0781</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009668</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华安庆混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>26.86</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0634</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>003165</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏华弘嘉灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0480</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005776</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>69.76</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>003166</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华弘嘉灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005417</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏华尊惠18个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>29.32</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603855-华荣股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603855-华荣股份.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2417,4 +2418,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>15</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.05</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>15</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.88</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603855-华荣股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603855-华荣股份.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2426,7 +2427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2437,17 +2438,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2457,14 +2478,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>15</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.05</v>
+          <t>166801</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>浙商聚潮新思维混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.79</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>73.63</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3806</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -2473,14 +2516,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>003165</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华弘嘉灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.79</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2672</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>9</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.2</v>
       </c>
     </row>
     <row r="4">
@@ -2489,14 +2554,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>15</v>
-      </c>
-      <c r="D4" t="n">
-        <v>5.88</v>
+          <t>005416</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华尊惠18个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>36.72</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2341</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -2505,13 +2592,949 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>009128</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>明亚价值长青混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>71.30</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1504</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005775</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>75.59</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1357</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009242</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中加核心智造混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>76.93</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1223</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009231</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华安和混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>28.91</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1210</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002085</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长盛互联网+主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>81.40</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1130</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012071</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中加喜利回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>38.07</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0927</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010642</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>农银汇理秀山一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>29.74</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0887</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006199</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长盛同锦研究精选混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>81.17</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0820</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001892</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长盛新兴成长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>81.20</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0774</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009668</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华安庆混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>30.82</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0651</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012072</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中加喜利回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>38.07</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0492</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005776</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>75.59</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0442</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011052</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏华弘裕一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>20.39</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0417</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009667</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鹏华安庆混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>30.82</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0404</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002018</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鹏华弘安灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>21.37</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0399</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009230</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鹏华安和混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>28.91</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0365</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>003166</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>鹏华弘嘉灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005417</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>鹏华尊惠18个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>36.72</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009243</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中加核心智造混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>76.93</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011053</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>鹏华弘裕一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>20.39</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>002019</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>鹏华弘安灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>21.37</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009129</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>明亚价值长青混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>71.30</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>25</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.23</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>15</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.05</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>15</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.88</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>7</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>2.56</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603855-华荣股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603855-华荣股份.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3433,7 +3434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3444,17 +3445,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3464,14 +3485,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>25</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.23</v>
+          <t>166801</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>浙商聚潮新思维混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.62</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>78.06</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2828</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -3480,14 +3523,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>15</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.05</v>
+          <t>009230</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华安和混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>14.02</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>34.45</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2243</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -3496,14 +3561,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>9</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.2</v>
+          <t>009667</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华安庆混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.22</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>38.92</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2087</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -3512,14 +3599,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>15</v>
-      </c>
-      <c r="D5" t="n">
-        <v>5.88</v>
+          <t>005416</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华尊惠18个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>37.81</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1884</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -3528,13 +3637,735 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>011160</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国质量成长6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.55</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0954</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009231</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华安和混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>34.45</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0853</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006199</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>长盛同锦研究精选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>82.48</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0782</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001892</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长盛新兴成长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>82.10</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0597</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009242</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中加核心智造混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>65.71</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0594</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003165</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华弘嘉灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0477</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009668</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华安庆混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>38.92</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0439</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002085</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长盛互联网+主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>83.97</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0380</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>003166</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华弘嘉灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012005</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>信达澳银恒盛混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>31.90</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005417</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏华尊惠18个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>37.81</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009128</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>明亚价值长青混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>49.48</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011161</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富国质量成长6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.55</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009243</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中加核心智造混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>65.71</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012006</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>信达澳银恒盛混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>31.90</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009129</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>明亚价值长青混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>49.48</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>20</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>25</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.23</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>15</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.05</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>15</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5.88</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>7</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>2.56</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603855-华荣股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603855-华荣股份.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4248,7 +4249,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4259,17 +4260,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4279,14 +4300,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>20</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.48</v>
+          <t>920003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中金新锐股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>24.17</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.10</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9886</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -4295,14 +4338,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>25</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.23</v>
+          <t>000471</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国城镇发展股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.93</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2743</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -4311,14 +4376,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>15</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.05</v>
+          <t>005775</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>62.53</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2549</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -4327,14 +4414,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>9</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.2</v>
+          <t>005416</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华尊惠18个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>34.92</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1933</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -4343,14 +4452,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>15</v>
-      </c>
-      <c r="D6" t="n">
-        <v>5.88</v>
+          <t>920923</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中金新锐股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>95.10</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1534</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -4359,13 +4490,979 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>000940</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.90</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1344</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009230</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华安和混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>38.52</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1305</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011160</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国质量成长6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.22</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1196</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009667</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华安庆混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>38.20</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1081</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009242</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中加核心智造混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>61.92</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0891</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005776</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>62.53</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0728</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009231</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏华安和混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>38.52</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0417</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>003165</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华弘嘉灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.12</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0408</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002018</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华弘安灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>21.66</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0334</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009668</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏华安庆混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>38.20</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011052</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏华弘裕一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>25.99</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009128</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>明亚价值长青混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>51.87</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009243</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中加核心智造混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>61.92</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005417</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鹏华尊惠18个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>34.92</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012005</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>信达澳银恒盛混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>31.58</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>003166</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>鹏华弘嘉灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.12</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>003670</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中融物联网主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002019</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>鹏华弘安灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>21.66</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011161</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>富国质量成长6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>89.22</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011053</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>鹏华弘裕一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>25.99</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>012006</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>信达澳银恒盛混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>31.58</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009129</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>明亚价值长青混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>51.87</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>27</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.76</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>20</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>25</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>15</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.05</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>9</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>15</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5.88</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>7</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>2.56</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603855-华荣股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603855-华荣股份.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D2" t="n">
-        <v>2.76</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D3" t="n">
-        <v>1.48</v>
+        <v>2.76</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D4" t="n">
-        <v>2.23</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D5" t="n">
-        <v>2.05</v>
+        <v>2.23</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D6" t="n">
-        <v>1.2</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D7" t="n">
-        <v>5.88</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>15</v>
+      </c>
+      <c r="D8" t="n">
+        <v>5.88</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>7</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>2.56</v>
       </c>
     </row>
@@ -600,6 +617,896 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>920003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中金新锐股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>17.72</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.26</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7442</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005775</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>50.55</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1575</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>920923</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中金新锐股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.26</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1394</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005416</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华尊惠18个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>37.52</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1325</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>920002</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中金精选股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>82.28</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0988</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009242</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中加核心智造混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>61.20</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0726</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012072</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中加喜利回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>38.64</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0422</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012071</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中加喜利回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>38.64</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0378</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005776</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>50.55</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0375</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009230</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华安和混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>39.30</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009667</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华安庆混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>38.12</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>003165</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏华弘嘉灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.09</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011572</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华安荣混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>39.92</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009668</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华安庆混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>38.12</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009231</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏华安和混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>39.30</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009128</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>明亚价值长青混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>57.73</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005417</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鹏华尊惠18个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>37.52</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>003166</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鹏华弘嘉灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.09</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011573</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鹏华安荣混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>39.92</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>920922</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中金精选股票C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>82.28</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009243</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中加核心智造混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>61.20</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009129</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>明亚价值长青混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>57.73</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1679,7 +2586,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2493,7 +3400,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3499,7 +4406,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4125,7 +5032,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4523,7 +5430,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5149,7 +6056,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/603855-华荣股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603855-华荣股份.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D2" t="n">
-        <v>1.64</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D3" t="n">
-        <v>2.76</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D4" t="n">
-        <v>1.48</v>
+        <v>2.76</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D5" t="n">
-        <v>2.23</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D6" t="n">
-        <v>2.05</v>
+        <v>2.23</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D7" t="n">
-        <v>1.2</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D8" t="n">
-        <v>5.88</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>15</v>
+      </c>
+      <c r="D9" t="n">
+        <v>5.88</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>7</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>2.56</v>
       </c>
     </row>
@@ -616,7 +633,1561 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>270001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发聚富混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.28</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>74.92</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8114</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519029</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏稳增混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>14.22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5247</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001763</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4421</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005233</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发睿毅领先混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.27</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3744</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008099</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发价值领先混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3160</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009667</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华安庆混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>35.62</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0808</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009668</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华安庆混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>35.62</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>920003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中金新锐股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>19.30</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8434</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005760</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国周期优势混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>22.92</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5799</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010549</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国均衡策略混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>23.23</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.47</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5784</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008186</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>淳厚信睿核心精选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.58</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4210</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009931</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>淳厚欣享一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.76</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3143</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005775</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>53.27</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2684</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008187</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>淳厚信睿核心精选混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1900</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>920923</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中金新锐股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1455</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011160</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国质量成长6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.73</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1251</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>920002</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中金精选股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1050</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005776</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>53.27</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0785</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009242</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中加核心智造混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>61.58</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0766</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005416</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华尊惠18个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>39.19</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0665</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009668</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华安庆混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>39.85</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0572</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009939</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>淳厚欣享一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0502</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009667</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏华安庆混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>39.85</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0480</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012072</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中加喜利回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>36.36</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0448</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011573</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鹏华安荣混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>39.61</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0410</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012071</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中加喜利回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>36.36</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0404</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011565</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>富国周期优势混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0392</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>003166</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>鹏华弘嘉灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0371</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011572</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>鹏华安荣混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>39.61</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0337</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009231</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>鹏华安和混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>38.20</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0313</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>003165</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>鹏华弘嘉灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009230</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>鹏华安和混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>38.20</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009128</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>明亚价值长青混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>52.21</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005417</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>鹏华尊惠18个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>39.19</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011161</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>富国质量成长6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>89.73</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009243</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中加核心智造混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>61.58</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>920922</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中金精选股票C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009129</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>明亚价值长青混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>52.21</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1506,7 +3077,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2586,7 +4157,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3400,7 +4971,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4406,7 +5977,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5032,7 +6603,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5430,7 +7001,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6054,326 +7625,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H8"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>270001</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>广发聚富混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>15.28</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>74.92</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.31</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.8114</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>519029</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华夏稳增混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>14.22</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.95</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.69</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.5247</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>001763</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>广发多策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>7.04</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>91.75</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>6.28</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.4421</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>005233</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>广发睿毅领先混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>7.37</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>89.27</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.08</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.3744</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>008099</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>广发价值领先混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>92.20</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>8.00</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.3160</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>009667</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>鹏华安庆混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>7.28</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>35.62</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.11</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0808</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>009668</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>鹏华安庆混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.74</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>35.62</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1.11</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0082</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>